--- a/SubRES_TMPL/SubRES_B-NewTechs_COM_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_B-NewTechs_COM_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Gällivare\Gallivare_Model_221212\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE37CC50-9792-4982-B690-2346C4307364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095E4660-79F1-4F11-A3C8-A55E278A0FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3012" yWindow="1140" windowWidth="17280" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UPD_AF" sheetId="4" r:id="rId1"/>
@@ -261,37 +261,37 @@
     <t>Z01</t>
   </si>
   <si>
+    <t>MK*</t>
+  </si>
+  <si>
+    <t>ML*</t>
+  </si>
+  <si>
+    <t>MO*</t>
+  </si>
+  <si>
+    <t>MH*SOL*</t>
+  </si>
+  <si>
+    <t>MH*AHT*</t>
+  </si>
+  <si>
+    <t>MH*HTH*</t>
+  </si>
+  <si>
+    <t>MH*HP*</t>
+  </si>
+  <si>
+    <t>M*SAV*</t>
+  </si>
+  <si>
+    <t>MH*BFW*,MH*BPL*,MH*COA*,MH*GAS*,MH*LPG*,MH*OIL*,MH*WOF*,MH*WOO*</t>
+  </si>
+  <si>
+    <t>~TFM_FILL</t>
+  </si>
+  <si>
     <t>~TFM_UPD</t>
-  </si>
-  <si>
-    <t>~TFM_FILL</t>
-  </si>
-  <si>
-    <t>MK*</t>
-  </si>
-  <si>
-    <t>ML*</t>
-  </si>
-  <si>
-    <t>MO*</t>
-  </si>
-  <si>
-    <t>MH*SOL*</t>
-  </si>
-  <si>
-    <t>MH*AHT*</t>
-  </si>
-  <si>
-    <t>MH*HTH*</t>
-  </si>
-  <si>
-    <t>MH*HP*</t>
-  </si>
-  <si>
-    <t>M*SAV*</t>
-  </si>
-  <si>
-    <t>MH*BFW*,MH*BPL*,MH*COA*,MH*GAS*,MH*LPG*,MH*OIL*,MH*WOF*,MH*WOO*</t>
   </si>
 </sst>
 </file>
@@ -872,7 +872,7 @@
   <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -885,7 +885,7 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="39" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -1101,7 +1101,7 @@
         <v>0.15</v>
       </c>
       <c r="G12" s="49" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H12" s="40"/>
       <c r="I12" s="43"/>
@@ -1118,7 +1118,7 @@
   <dimension ref="B3:AO77"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1148,7 +1148,7 @@
   <sheetData>
     <row r="3" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B3" s="38" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I5" s="37"/>
       <c r="J5" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="I6" s="37"/>
       <c r="J6" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I7" s="37"/>
       <c r="J7" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I8" s="37"/>
       <c r="J8" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="I9" s="37"/>
       <c r="J9" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K9" s="29"/>
       <c r="L9" s="34"/>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="I10" s="37"/>
       <c r="J10" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="34"/>
@@ -1657,7 +1657,7 @@
       <c r="G11" s="29"/>
       <c r="H11" s="36"/>
       <c r="J11" s="46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="34"/>
@@ -1722,7 +1722,7 @@
         <v>0.15</v>
       </c>
       <c r="J12" s="46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L12" s="34"/>
       <c r="M12" s="29"/>

--- a/SubRES_TMPL/SubRES_B-NewTechs_COM_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_B-NewTechs_COM_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Gällivare\Gallivare_Model_221212\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Gällivare\Gallivare_Model_230318\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095E4660-79F1-4F11-A3C8-A55E278A0FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934EEAE9-D9EB-4F3D-A6C7-41AF820AF6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26205" yWindow="570" windowWidth="30975" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UPD_AF" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="87">
   <si>
     <t>TimeSlice</t>
   </si>
@@ -261,37 +261,40 @@
     <t>Z01</t>
   </si>
   <si>
-    <t>MK*</t>
-  </si>
-  <si>
-    <t>ML*</t>
-  </si>
-  <si>
-    <t>MO*</t>
-  </si>
-  <si>
-    <t>MH*SOL*</t>
-  </si>
-  <si>
-    <t>MH*AHT*</t>
-  </si>
-  <si>
-    <t>MH*HTH*</t>
-  </si>
-  <si>
-    <t>MH*HP*</t>
-  </si>
-  <si>
-    <t>M*SAV*</t>
-  </si>
-  <si>
-    <t>MH*BFW*,MH*BPL*,MH*COA*,MH*GAS*,MH*LPG*,MH*OIL*,MH*WOF*,MH*WOO*</t>
-  </si>
-  <si>
     <t>~TFM_FILL</t>
   </si>
   <si>
     <t>~TFM_UPD</t>
+  </si>
+  <si>
+    <t>CH*BFW*,CH*BPL*,CH*COA*,CH*GAS*,CH*LPG*,CH*OIL*,CH*WOF*,CH*WOO*</t>
+  </si>
+  <si>
+    <t>CK*</t>
+  </si>
+  <si>
+    <t>CL*</t>
+  </si>
+  <si>
+    <t>CO*</t>
+  </si>
+  <si>
+    <t>CH*SOL*</t>
+  </si>
+  <si>
+    <t>CH*AHT*</t>
+  </si>
+  <si>
+    <t>C*SAV*</t>
+  </si>
+  <si>
+    <t>CH*HTH*</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>CH*HP*</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -529,14 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -544,9 +539,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -558,10 +550,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -574,14 +566,13 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -872,7 +863,7 @@
   <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,229 +875,229 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="B2" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="44">
+      <c r="E4" s="35"/>
+      <c r="F4" s="39">
         <f>IF(OR(FILL_AF!H5="",FILL_AF!H5=0), 0.05,FILL_AF!H5)</f>
         <v>0.18333333333333299</v>
       </c>
-      <c r="G4" s="49" t="str">
+      <c r="G4" s="43" t="str">
         <f>FILL_AF!J5</f>
-        <v>MH*BFW*,MH*BPL*,MH*COA*,MH*GAS*,MH*LPG*,MH*OIL*,MH*WOF*,MH*WOO*</v>
-      </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
+        <v>CH*BFW*,CH*BPL*,CH*COA*,CH*GAS*,CH*LPG*,CH*OIL*,CH*WOF*,CH*WOO*</v>
+      </c>
+      <c r="H4" s="35"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="44">
+      <c r="E5" s="35"/>
+      <c r="F5" s="39">
         <f>IF(OR(FILL_AF!H6="",FILL_AF!H6=0), 0.05,FILL_AF!H6)</f>
         <v>4.9999999999999899E-2</v>
       </c>
-      <c r="G5" s="49" t="str">
+      <c r="G5" s="43" t="str">
         <f>FILL_AF!J6</f>
-        <v>MK*</v>
-      </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
+        <v>CK*</v>
+      </c>
+      <c r="H5" s="35"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="44">
+      <c r="E6" s="35"/>
+      <c r="F6" s="39">
         <f>IF(OR(FILL_AF!H7="",FILL_AF!H7=0), 0.05,FILL_AF!H7)</f>
         <v>0.60000000000000098</v>
       </c>
-      <c r="G6" s="49" t="str">
+      <c r="G6" s="43" t="str">
         <f>FILL_AF!J7</f>
-        <v>ML*</v>
-      </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="40"/>
+        <v>CL*</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="44">
+      <c r="E7" s="35"/>
+      <c r="F7" s="39">
         <f>IF(OR(FILL_AF!H8="",FILL_AF!H8=0), 0.05,FILL_AF!H8)</f>
         <v>1</v>
       </c>
-      <c r="G7" s="49" t="str">
+      <c r="G7" s="43" t="str">
         <f>FILL_AF!J8</f>
-        <v>MO*</v>
-      </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
+        <v>CO*</v>
+      </c>
+      <c r="H7" s="35"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="44">
+      <c r="E8" s="35"/>
+      <c r="F8" s="39">
         <f>IF(OR(FILL_AF!H9="",FILL_AF!H9=0), 0.05,0.55*FILL_AF!H9)</f>
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="G8" s="49" t="str">
+      <c r="G8" s="43" t="str">
         <f>FILL_AF!J9</f>
-        <v>MH*SOL*</v>
-      </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
+        <v>CH*SOL*</v>
+      </c>
+      <c r="H8" s="35"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="44">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="39">
         <f>IF(OR(FILL_AF!H10="",FILL_AF!H10=0), 0.1,FILL_AF!H10)</f>
         <v>0.15</v>
       </c>
-      <c r="G9" s="49" t="str">
+      <c r="G9" s="43" t="str">
         <f>FILL_AF!J10</f>
-        <v>MH*AHT*</v>
-      </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+        <v>CH*AHT*</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="44">
+      <c r="E10" s="35"/>
+      <c r="F10" s="39">
         <f>IF(OR(FILL_AF!H11="",FILL_AF!H11=0), 0.05,FILL_AF!H11)</f>
         <v>0.05</v>
       </c>
-      <c r="G10" s="49" t="str">
+      <c r="G10" s="43" t="str">
         <f>FILL_AF!J11</f>
-        <v>M*SAV*</v>
-      </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
+        <v>C*SAV*</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="44">
+      <c r="E11" s="35"/>
+      <c r="F11" s="39">
         <f>IF(OR(FILL_AF!H12="",FILL_AF!H12=0), 0.05,FILL_AF!H12)</f>
         <v>0.15</v>
       </c>
-      <c r="G11" s="49" t="str">
+      <c r="G11" s="43" t="str">
         <f>FILL_AF!J12</f>
-        <v>MH*HTH*</v>
-      </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
+        <v>CH*HTH*</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="44">
+      <c r="E12" s="35"/>
+      <c r="F12" s="39">
         <f>F9</f>
         <v>0.15</v>
       </c>
-      <c r="G12" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
+      <c r="G12" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1118,7 +1109,7 @@
   <dimension ref="B3:AO77"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="J5" sqref="J5:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1127,127 +1118,127 @@
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="6.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="6" customWidth="1"/>
     <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
     <col min="20" max="20" width="10.6640625" customWidth="1"/>
-    <col min="21" max="21" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.88671875" style="4"/>
-    <col min="24" max="24" width="11.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.6640625" customWidth="1"/>
     <col min="32" max="32" width="8.5546875" customWidth="1"/>
     <col min="34" max="34" width="18.44140625" customWidth="1"/>
-    <col min="35" max="35" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14.33203125" customWidth="1"/>
     <col min="37" max="37" width="14.109375" customWidth="1"/>
     <col min="38" max="38" width="13.88671875" customWidth="1"/>
-    <col min="39" max="39" width="14.21875" customWidth="1"/>
+    <col min="39" max="39" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B3" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
+      <c r="B3" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
     </row>
     <row r="4" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
       <c r="T4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="36">
+      <c r="G5" s="24"/>
+      <c r="H5" s="31">
         <v>0.18333333333333299</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
       <c r="T5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1260,7 +1251,7 @@
       <c r="W5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="X5" s="25" t="s">
+      <c r="X5" s="21" t="s">
         <v>4</v>
       </c>
       <c r="Y5" s="1" t="s">
@@ -1307,36 +1298,36 @@
       </c>
     </row>
     <row r="6" spans="2:41" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="36">
+      <c r="G6" s="24"/>
+      <c r="H6" s="31">
         <v>4.9999999999999899E-2</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
       <c r="T6" s="16" t="s">
         <v>14</v>
       </c>
@@ -1347,7 +1338,7 @@
       <c r="W6" s="18">
         <v>2019</v>
       </c>
-      <c r="X6" s="26">
+      <c r="X6" s="22">
         <f>ROUND($AJ$22*VLOOKUP(LEFT(T6,2),$AL$5:$AN$8,3,FALSE)*VLOOKUP(RIGHT(T6,1),$AL$10:$AM$12,2,FALSE)/8760,4)</f>
         <v>1.8700000000000001E-2</v>
       </c>
@@ -1375,36 +1366,36 @@
       </c>
     </row>
     <row r="7" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="36">
+      <c r="G7" s="24"/>
+      <c r="H7" s="31">
         <v>0.60000000000000098</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
       <c r="T7" s="16" t="s">
         <v>15</v>
       </c>
@@ -1415,7 +1406,7 @@
       <c r="W7" s="18">
         <v>2019</v>
       </c>
-      <c r="X7" s="26">
+      <c r="X7" s="22">
         <f t="shared" ref="X7:X17" si="0">ROUND($AJ$22*VLOOKUP(LEFT(T7,2),$AL$5:$AN$8,3,FALSE)*VLOOKUP(RIGHT(T7,1),$AL$10:$AM$12,2,FALSE)/8760,4)</f>
         <v>1.7100000000000001E-2</v>
       </c>
@@ -1443,36 +1434,36 @@
       </c>
     </row>
     <row r="8" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="36">
+      <c r="G8" s="24"/>
+      <c r="H8" s="31">
         <v>1</v>
       </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
       <c r="T8" s="16" t="s">
         <v>16</v>
       </c>
@@ -1483,7 +1474,7 @@
       <c r="W8" s="18">
         <v>2019</v>
       </c>
-      <c r="X8" s="26">
+      <c r="X8" s="22">
         <f t="shared" si="0"/>
         <v>1.6000000000000001E-3</v>
       </c>
@@ -1511,36 +1502,36 @@
       </c>
     </row>
     <row r="9" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29" t="s">
+      <c r="E9" s="24"/>
+      <c r="F9" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="36">
+      <c r="G9" s="24"/>
+      <c r="H9" s="31">
         <v>0.15</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="24"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
       <c r="T9" s="16" t="s">
         <v>17</v>
       </c>
@@ -1551,7 +1542,7 @@
       <c r="W9" s="18">
         <v>2019</v>
       </c>
-      <c r="X9" s="26">
+      <c r="X9" s="22">
         <f t="shared" si="0"/>
         <v>1.5800000000000002E-2</v>
       </c>
@@ -1575,36 +1566,36 @@
       </c>
     </row>
     <row r="10" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="36">
+      <c r="G10" s="24"/>
+      <c r="H10" s="31">
         <v>0.15</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
       <c r="T10" s="16" t="s">
         <v>18</v>
       </c>
@@ -1615,7 +1606,7 @@
       <c r="W10" s="18">
         <v>2019</v>
       </c>
-      <c r="X10" s="26">
+      <c r="X10" s="22">
         <f t="shared" si="0"/>
         <v>1.4500000000000001E-2</v>
       </c>
@@ -1641,33 +1632,33 @@
       <c r="AO10" s="2"/>
     </row>
     <row r="11" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="36"/>
-      <c r="J11" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="31"/>
+      <c r="J11" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="24"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
       <c r="T11" s="16" t="s">
         <v>19</v>
       </c>
@@ -1678,7 +1669,7 @@
       <c r="W11" s="18">
         <v>2019</v>
       </c>
-      <c r="X11" s="26">
+      <c r="X11" s="22">
         <f t="shared" si="0"/>
         <v>1.2999999999999999E-3</v>
       </c>
@@ -1704,34 +1695,34 @@
       <c r="AO11" s="2"/>
     </row>
     <row r="12" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29" t="s">
+      <c r="E12" s="24"/>
+      <c r="F12" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="36">
+      <c r="G12" s="24"/>
+      <c r="H12" s="31">
         <v>0.15</v>
       </c>
-      <c r="J12" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
+      <c r="J12" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="29"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
       <c r="T12" s="16" t="s">
         <v>20</v>
       </c>
@@ -1742,7 +1733,7 @@
       <c r="W12" s="18">
         <v>2019</v>
       </c>
-      <c r="X12" s="26">
+      <c r="X12" s="22">
         <f t="shared" si="0"/>
         <v>2.47E-2</v>
       </c>
@@ -1768,13 +1759,13 @@
       <c r="AO12" s="2"/>
     </row>
     <row r="13" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
       <c r="T13" s="16" t="s">
         <v>21</v>
       </c>
@@ -1785,7 +1776,7 @@
       <c r="W13" s="18">
         <v>2019</v>
       </c>
-      <c r="X13" s="26">
+      <c r="X13" s="22">
         <f t="shared" si="0"/>
         <v>2.2599999999999999E-2</v>
       </c>
@@ -1809,13 +1800,13 @@
       <c r="AO13" s="2"/>
     </row>
     <row r="14" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
       <c r="T14" s="16" t="s">
         <v>22</v>
       </c>
@@ -1826,7 +1817,7 @@
       <c r="W14" s="18">
         <v>2019</v>
       </c>
-      <c r="X14" s="26">
+      <c r="X14" s="22">
         <f t="shared" si="0"/>
         <v>2.0999999999999999E-3</v>
       </c>
@@ -1842,13 +1833,13 @@
       </c>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
       <c r="T15" s="16" t="s">
         <v>23</v>
       </c>
@@ -1859,7 +1850,7 @@
       <c r="W15" s="18">
         <v>2019</v>
       </c>
-      <c r="X15" s="26">
+      <c r="X15" s="22">
         <f t="shared" si="0"/>
         <v>1.5800000000000002E-2</v>
       </c>
@@ -1875,13 +1866,13 @@
       </c>
     </row>
     <row r="16" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
       <c r="T16" s="16" t="s">
         <v>24</v>
       </c>
@@ -1892,7 +1883,7 @@
       <c r="W16" s="18">
         <v>2019</v>
       </c>
-      <c r="X16" s="26">
+      <c r="X16" s="22">
         <f t="shared" si="0"/>
         <v>1.4500000000000001E-2</v>
       </c>
@@ -1908,13 +1899,13 @@
       </c>
     </row>
     <row r="17" spans="13:39" x14ac:dyDescent="0.3">
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
       <c r="T17" s="16" t="s">
         <v>25</v>
       </c>
@@ -1925,7 +1916,7 @@
       <c r="W17" s="18">
         <v>2019</v>
       </c>
-      <c r="X17" s="26">
+      <c r="X17" s="22">
         <f t="shared" si="0"/>
         <v>1.2999999999999999E-3</v>
       </c>
@@ -1935,13 +1926,13 @@
       </c>
     </row>
     <row r="18" spans="13:39" x14ac:dyDescent="0.3">
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
       <c r="T18" s="19" t="s">
         <v>14</v>
       </c>
@@ -1952,7 +1943,7 @@
       <c r="W18" s="8">
         <v>2019</v>
       </c>
-      <c r="X18" s="27">
+      <c r="X18" s="23">
         <f>ROUND($AJ$28*VLOOKUP(LEFT(T18,2),$AL$5:$AN$8,3,FALSE)*VLOOKUP(RIGHT(T18,1),$AL$10:$AM$12,2,FALSE)/8760,4)</f>
         <v>1.8700000000000001E-2</v>
       </c>
@@ -1962,13 +1953,13 @@
       </c>
     </row>
     <row r="19" spans="13:39" x14ac:dyDescent="0.3">
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
       <c r="T19" s="19" t="s">
         <v>15</v>
       </c>
@@ -1979,7 +1970,7 @@
       <c r="W19" s="8">
         <v>2019</v>
       </c>
-      <c r="X19" s="27">
+      <c r="X19" s="23">
         <f t="shared" ref="X19:X29" si="1">ROUND($AJ$28*VLOOKUP(LEFT(T19,2),$AL$5:$AN$8,3,FALSE)*VLOOKUP(RIGHT(T19,1),$AL$10:$AM$12,2,FALSE)/8760,4)</f>
         <v>1.7100000000000001E-2</v>
       </c>
@@ -1988,23 +1979,23 @@
         <v>62</v>
       </c>
       <c r="AI19" s="6"/>
-      <c r="AJ19" s="50" t="s">
+      <c r="AJ19" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="AK19" s="50"/>
-      <c r="AL19" s="50" t="s">
+      <c r="AK19" s="44"/>
+      <c r="AL19" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="AM19" s="50"/>
+      <c r="AM19" s="44"/>
     </row>
     <row r="20" spans="13:39" x14ac:dyDescent="0.3">
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
       <c r="T20" s="19" t="s">
         <v>16</v>
       </c>
@@ -2015,7 +2006,7 @@
       <c r="W20" s="8">
         <v>2019</v>
       </c>
-      <c r="X20" s="27">
+      <c r="X20" s="23">
         <f t="shared" si="1"/>
         <v>1.6000000000000001E-3</v>
       </c>
@@ -2038,13 +2029,13 @@
       </c>
     </row>
     <row r="21" spans="13:39" x14ac:dyDescent="0.3">
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
       <c r="T21" s="19" t="s">
         <v>17</v>
       </c>
@@ -2055,7 +2046,7 @@
       <c r="W21" s="8">
         <v>2019</v>
       </c>
-      <c r="X21" s="27">
+      <c r="X21" s="23">
         <f t="shared" si="1"/>
         <v>1.5800000000000002E-2</v>
       </c>
@@ -2080,13 +2071,13 @@
       </c>
     </row>
     <row r="22" spans="13:39" x14ac:dyDescent="0.3">
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
       <c r="T22" s="19" t="s">
         <v>18</v>
       </c>
@@ -2097,7 +2088,7 @@
       <c r="W22" s="8">
         <v>2019</v>
       </c>
-      <c r="X22" s="27">
+      <c r="X22" s="23">
         <f t="shared" si="1"/>
         <v>1.4500000000000001E-2</v>
       </c>
@@ -2125,13 +2116,13 @@
       </c>
     </row>
     <row r="23" spans="13:39" x14ac:dyDescent="0.3">
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
       <c r="T23" s="19" t="s">
         <v>19</v>
       </c>
@@ -2142,7 +2133,7 @@
       <c r="W23" s="8">
         <v>2019</v>
       </c>
-      <c r="X23" s="27">
+      <c r="X23" s="23">
         <f t="shared" si="1"/>
         <v>1.2999999999999999E-3</v>
       </c>
@@ -2170,13 +2161,13 @@
       </c>
     </row>
     <row r="24" spans="13:39" x14ac:dyDescent="0.3">
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
       <c r="T24" s="19" t="s">
         <v>20</v>
       </c>
@@ -2187,7 +2178,7 @@
       <c r="W24" s="8">
         <v>2019</v>
       </c>
-      <c r="X24" s="27">
+      <c r="X24" s="23">
         <f t="shared" si="1"/>
         <v>2.47E-2</v>
       </c>
@@ -2215,13 +2206,13 @@
       </c>
     </row>
     <row r="25" spans="13:39" x14ac:dyDescent="0.3">
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
       <c r="T25" s="19" t="s">
         <v>21</v>
       </c>
@@ -2232,7 +2223,7 @@
       <c r="W25" s="8">
         <v>2019</v>
       </c>
-      <c r="X25" s="27">
+      <c r="X25" s="23">
         <f t="shared" si="1"/>
         <v>2.2599999999999999E-2</v>
       </c>
@@ -2260,13 +2251,13 @@
       </c>
     </row>
     <row r="26" spans="13:39" x14ac:dyDescent="0.3">
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
       <c r="T26" s="19" t="s">
         <v>22</v>
       </c>
@@ -2277,7 +2268,7 @@
       <c r="W26" s="8">
         <v>2019</v>
       </c>
-      <c r="X26" s="27">
+      <c r="X26" s="23">
         <f t="shared" si="1"/>
         <v>2.0999999999999999E-3</v>
       </c>
@@ -2305,13 +2296,13 @@
       </c>
     </row>
     <row r="27" spans="13:39" x14ac:dyDescent="0.3">
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
       <c r="T27" s="19" t="s">
         <v>23</v>
       </c>
@@ -2322,7 +2313,7 @@
       <c r="W27" s="8">
         <v>2019</v>
       </c>
-      <c r="X27" s="27">
+      <c r="X27" s="23">
         <f t="shared" si="1"/>
         <v>1.5800000000000002E-2</v>
       </c>
@@ -2350,13 +2341,13 @@
       </c>
     </row>
     <row r="28" spans="13:39" x14ac:dyDescent="0.3">
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
       <c r="T28" s="19" t="s">
         <v>24</v>
       </c>
@@ -2367,7 +2358,7 @@
       <c r="W28" s="8">
         <v>2019</v>
       </c>
-      <c r="X28" s="27">
+      <c r="X28" s="23">
         <f t="shared" si="1"/>
         <v>1.4500000000000001E-2</v>
       </c>
@@ -2395,13 +2386,13 @@
       </c>
     </row>
     <row r="29" spans="13:39" x14ac:dyDescent="0.3">
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
       <c r="T29" s="19" t="s">
         <v>25</v>
       </c>
@@ -2412,7 +2403,7 @@
       <c r="W29" s="8">
         <v>2019</v>
       </c>
-      <c r="X29" s="27">
+      <c r="X29" s="23">
         <f t="shared" si="1"/>
         <v>1.2999999999999999E-3</v>
       </c>
@@ -2440,13 +2431,13 @@
       </c>
     </row>
     <row r="30" spans="13:39" x14ac:dyDescent="0.3">
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
       <c r="T30" s="16" t="s">
         <v>14</v>
       </c>
@@ -2457,7 +2448,7 @@
       <c r="W30" s="18">
         <v>2019</v>
       </c>
-      <c r="X30" s="26">
+      <c r="X30" s="22">
         <f>ROUND($AL$22*VLOOKUP(LEFT(T30,2),$AL$5:$AN$8,3,FALSE)*VLOOKUP(RIGHT(T30,1),$AL$10:$AM$12,2,FALSE)/8760,4)</f>
         <v>2.4899999999999999E-2</v>
       </c>
@@ -2481,13 +2472,13 @@
       </c>
     </row>
     <row r="31" spans="13:39" x14ac:dyDescent="0.3">
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
       <c r="T31" s="16" t="s">
         <v>15</v>
       </c>
@@ -2498,7 +2489,7 @@
       <c r="W31" s="18">
         <v>2019</v>
       </c>
-      <c r="X31" s="26">
+      <c r="X31" s="22">
         <f t="shared" ref="X31:X41" si="2">ROUND($AL$22*VLOOKUP(LEFT(T31,2),$AL$5:$AN$8,3,FALSE)*VLOOKUP(RIGHT(T31,1),$AL$10:$AM$12,2,FALSE)/8760,4)</f>
         <v>2.29E-2</v>
       </c>
@@ -2508,13 +2499,13 @@
       </c>
     </row>
     <row r="32" spans="13:39" x14ac:dyDescent="0.3">
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
       <c r="T32" s="16" t="s">
         <v>16</v>
       </c>
@@ -2525,7 +2516,7 @@
       <c r="W32" s="18">
         <v>2019</v>
       </c>
-      <c r="X32" s="26">
+      <c r="X32" s="22">
         <f t="shared" si="2"/>
         <v>2.0999999999999999E-3</v>
       </c>
@@ -2535,13 +2526,13 @@
       </c>
     </row>
     <row r="33" spans="13:26" x14ac:dyDescent="0.3">
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
       <c r="T33" s="16" t="s">
         <v>17</v>
       </c>
@@ -2552,7 +2543,7 @@
       <c r="W33" s="18">
         <v>2019</v>
       </c>
-      <c r="X33" s="26">
+      <c r="X33" s="22">
         <f t="shared" si="2"/>
         <v>2.1100000000000001E-2</v>
       </c>
@@ -2562,13 +2553,13 @@
       </c>
     </row>
     <row r="34" spans="13:26" x14ac:dyDescent="0.3">
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
       <c r="T34" s="16" t="s">
         <v>18</v>
       </c>
@@ -2579,7 +2570,7 @@
       <c r="W34" s="18">
         <v>2019</v>
       </c>
-      <c r="X34" s="26">
+      <c r="X34" s="22">
         <f t="shared" si="2"/>
         <v>1.9300000000000001E-2</v>
       </c>
@@ -2589,13 +2580,13 @@
       </c>
     </row>
     <row r="35" spans="13:26" x14ac:dyDescent="0.3">
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
       <c r="T35" s="16" t="s">
         <v>19</v>
       </c>
@@ -2606,7 +2597,7 @@
       <c r="W35" s="18">
         <v>2019</v>
       </c>
-      <c r="X35" s="26">
+      <c r="X35" s="22">
         <f t="shared" si="2"/>
         <v>1.8E-3</v>
       </c>
@@ -2616,13 +2607,13 @@
       </c>
     </row>
     <row r="36" spans="13:26" x14ac:dyDescent="0.3">
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
       <c r="T36" s="16" t="s">
         <v>20</v>
       </c>
@@ -2633,7 +2624,7 @@
       <c r="W36" s="18">
         <v>2019</v>
       </c>
-      <c r="X36" s="26">
+      <c r="X36" s="22">
         <f t="shared" si="2"/>
         <v>3.2899999999999999E-2</v>
       </c>
@@ -2643,13 +2634,13 @@
       </c>
     </row>
     <row r="37" spans="13:26" x14ac:dyDescent="0.3">
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
       <c r="T37" s="16" t="s">
         <v>21</v>
       </c>
@@ -2660,7 +2651,7 @@
       <c r="W37" s="18">
         <v>2019</v>
       </c>
-      <c r="X37" s="26">
+      <c r="X37" s="22">
         <f t="shared" si="2"/>
         <v>3.0099999999999998E-2</v>
       </c>
@@ -2670,13 +2661,13 @@
       </c>
     </row>
     <row r="38" spans="13:26" x14ac:dyDescent="0.3">
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
       <c r="T38" s="16" t="s">
         <v>22</v>
       </c>
@@ -2687,7 +2678,7 @@
       <c r="W38" s="18">
         <v>2019</v>
       </c>
-      <c r="X38" s="26">
+      <c r="X38" s="22">
         <f t="shared" si="2"/>
         <v>2.7000000000000001E-3</v>
       </c>
@@ -2697,13 +2688,13 @@
       </c>
     </row>
     <row r="39" spans="13:26" x14ac:dyDescent="0.3">
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
       <c r="T39" s="16" t="s">
         <v>23</v>
       </c>
@@ -2714,7 +2705,7 @@
       <c r="W39" s="18">
         <v>2019</v>
       </c>
-      <c r="X39" s="26">
+      <c r="X39" s="22">
         <f t="shared" si="2"/>
         <v>2.1100000000000001E-2</v>
       </c>
@@ -2724,13 +2715,13 @@
       </c>
     </row>
     <row r="40" spans="13:26" x14ac:dyDescent="0.3">
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
       <c r="T40" s="16" t="s">
         <v>24</v>
       </c>
@@ -2741,7 +2732,7 @@
       <c r="W40" s="18">
         <v>2019</v>
       </c>
-      <c r="X40" s="26">
+      <c r="X40" s="22">
         <f t="shared" si="2"/>
         <v>1.9300000000000001E-2</v>
       </c>
@@ -2751,13 +2742,13 @@
       </c>
     </row>
     <row r="41" spans="13:26" x14ac:dyDescent="0.3">
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
       <c r="T41" s="16" t="s">
         <v>25</v>
       </c>
@@ -2768,7 +2759,7 @@
       <c r="W41" s="18">
         <v>2019</v>
       </c>
-      <c r="X41" s="26">
+      <c r="X41" s="22">
         <f t="shared" si="2"/>
         <v>1.8E-3</v>
       </c>
@@ -2778,13 +2769,13 @@
       </c>
     </row>
     <row r="42" spans="13:26" x14ac:dyDescent="0.3">
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
       <c r="T42" s="19" t="s">
         <v>14</v>
       </c>
@@ -2795,7 +2786,7 @@
       <c r="W42" s="8">
         <v>2019</v>
       </c>
-      <c r="X42" s="27">
+      <c r="X42" s="23">
         <f>ROUND($AL$28*VLOOKUP(LEFT(T42,2),$AL$5:$AN$8,3,FALSE)*VLOOKUP(RIGHT(T42,1),$AL$10:$AM$12,2,FALSE)/8760,4)</f>
         <v>2.4899999999999999E-2</v>
       </c>
@@ -2805,13 +2796,13 @@
       </c>
     </row>
     <row r="43" spans="13:26" x14ac:dyDescent="0.3">
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
       <c r="T43" s="19" t="s">
         <v>15</v>
       </c>
@@ -2822,7 +2813,7 @@
       <c r="W43" s="8">
         <v>2019</v>
       </c>
-      <c r="X43" s="27">
+      <c r="X43" s="23">
         <f t="shared" ref="X43:X53" si="3">ROUND($AL$28*VLOOKUP(LEFT(T43,2),$AL$5:$AN$8,3,FALSE)*VLOOKUP(RIGHT(T43,1),$AL$10:$AM$12,2,FALSE)/8760,4)</f>
         <v>2.29E-2</v>
       </c>
@@ -2832,13 +2823,13 @@
       </c>
     </row>
     <row r="44" spans="13:26" x14ac:dyDescent="0.3">
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
       <c r="T44" s="19" t="s">
         <v>16</v>
       </c>
@@ -2849,7 +2840,7 @@
       <c r="W44" s="8">
         <v>2019</v>
       </c>
-      <c r="X44" s="27">
+      <c r="X44" s="23">
         <f t="shared" si="3"/>
         <v>2.0999999999999999E-3</v>
       </c>
@@ -2859,12 +2850,12 @@
       </c>
     </row>
     <row r="45" spans="13:26" x14ac:dyDescent="0.3">
-      <c r="N45" s="29"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
       <c r="T45" s="19" t="s">
         <v>17</v>
       </c>
@@ -2875,7 +2866,7 @@
       <c r="W45" s="8">
         <v>2019</v>
       </c>
-      <c r="X45" s="27">
+      <c r="X45" s="23">
         <f t="shared" si="3"/>
         <v>2.1100000000000001E-2</v>
       </c>
@@ -2895,7 +2886,7 @@
       <c r="W46" s="8">
         <v>2019</v>
       </c>
-      <c r="X46" s="27">
+      <c r="X46" s="23">
         <f t="shared" si="3"/>
         <v>1.9300000000000001E-2</v>
       </c>
@@ -2915,7 +2906,7 @@
       <c r="W47" s="8">
         <v>2019</v>
       </c>
-      <c r="X47" s="27">
+      <c r="X47" s="23">
         <f t="shared" si="3"/>
         <v>1.8E-3</v>
       </c>
@@ -2935,7 +2926,7 @@
       <c r="W48" s="8">
         <v>2019</v>
       </c>
-      <c r="X48" s="27">
+      <c r="X48" s="23">
         <f t="shared" si="3"/>
         <v>3.2899999999999999E-2</v>
       </c>
@@ -2955,7 +2946,7 @@
       <c r="W49" s="8">
         <v>2019</v>
       </c>
-      <c r="X49" s="27">
+      <c r="X49" s="23">
         <f t="shared" si="3"/>
         <v>3.0099999999999998E-2</v>
       </c>
@@ -2975,7 +2966,7 @@
       <c r="W50" s="8">
         <v>2019</v>
       </c>
-      <c r="X50" s="27">
+      <c r="X50" s="23">
         <f t="shared" si="3"/>
         <v>2.7000000000000001E-3</v>
       </c>
@@ -2995,7 +2986,7 @@
       <c r="W51" s="8">
         <v>2019</v>
       </c>
-      <c r="X51" s="27">
+      <c r="X51" s="23">
         <f t="shared" si="3"/>
         <v>2.1100000000000001E-2</v>
       </c>
@@ -3015,7 +3006,7 @@
       <c r="W52" s="8">
         <v>2019</v>
       </c>
-      <c r="X52" s="27">
+      <c r="X52" s="23">
         <f t="shared" si="3"/>
         <v>1.9300000000000001E-2</v>
       </c>
@@ -3035,7 +3026,7 @@
       <c r="W53" s="8">
         <v>2019</v>
       </c>
-      <c r="X53" s="27">
+      <c r="X53" s="23">
         <f t="shared" si="3"/>
         <v>1.8E-3</v>
       </c>
@@ -3045,220 +3036,76 @@
       </c>
     </row>
     <row r="54" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="T54" s="23"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="21"/>
-      <c r="W54" s="24"/>
-      <c r="X54" s="28"/>
-      <c r="Y54" s="21"/>
-      <c r="Z54" s="21"/>
+      <c r="T54" s="2"/>
     </row>
     <row r="55" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="T55" s="23"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="24"/>
-      <c r="X55" s="28"/>
-      <c r="Y55" s="21"/>
-      <c r="Z55" s="21"/>
+      <c r="T55" s="2"/>
     </row>
     <row r="56" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="T56" s="23"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="24"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="21"/>
-      <c r="Z56" s="21"/>
+      <c r="T56" s="2"/>
     </row>
     <row r="57" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="T57" s="23"/>
-      <c r="U57" s="21"/>
-      <c r="V57" s="21"/>
-      <c r="W57" s="24"/>
-      <c r="X57" s="28"/>
-      <c r="Y57" s="21"/>
-      <c r="Z57" s="21"/>
+      <c r="T57" s="2"/>
     </row>
     <row r="58" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="T58" s="23"/>
-      <c r="U58" s="21"/>
-      <c r="V58" s="21"/>
-      <c r="W58" s="24"/>
-      <c r="X58" s="28"/>
-      <c r="Y58" s="21"/>
-      <c r="Z58" s="21"/>
+      <c r="T58" s="2"/>
     </row>
     <row r="59" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="T59" s="23"/>
-      <c r="U59" s="21"/>
-      <c r="V59" s="21"/>
-      <c r="W59" s="24"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="21"/>
-      <c r="Z59" s="21"/>
+      <c r="T59" s="2"/>
     </row>
     <row r="60" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="T60" s="23"/>
-      <c r="U60" s="21"/>
-      <c r="V60" s="21"/>
-      <c r="W60" s="24"/>
-      <c r="X60" s="28"/>
-      <c r="Y60" s="21"/>
-      <c r="Z60" s="21"/>
+      <c r="T60" s="2"/>
     </row>
     <row r="61" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="T61" s="23"/>
-      <c r="U61" s="21"/>
-      <c r="V61" s="21"/>
-      <c r="W61" s="24"/>
-      <c r="X61" s="28"/>
-      <c r="Y61" s="21"/>
-      <c r="Z61" s="21"/>
+      <c r="T61" s="2"/>
     </row>
     <row r="62" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="T62" s="23"/>
-      <c r="U62" s="21"/>
-      <c r="V62" s="21"/>
-      <c r="W62" s="24"/>
-      <c r="X62" s="28"/>
-      <c r="Y62" s="21"/>
-      <c r="Z62" s="21"/>
+      <c r="T62" s="2"/>
     </row>
     <row r="63" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="T63" s="23"/>
-      <c r="U63" s="21"/>
-      <c r="V63" s="21"/>
-      <c r="W63" s="24"/>
-      <c r="X63" s="28"/>
-      <c r="Y63" s="21"/>
-      <c r="Z63" s="21"/>
+      <c r="T63" s="2"/>
     </row>
     <row r="64" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="T64" s="23"/>
-      <c r="U64" s="21"/>
-      <c r="V64" s="21"/>
-      <c r="W64" s="24"/>
-      <c r="X64" s="28"/>
-      <c r="Y64" s="21"/>
-      <c r="Z64" s="21"/>
-    </row>
-    <row r="65" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="T65" s="23"/>
-      <c r="U65" s="21"/>
-      <c r="V65" s="21"/>
-      <c r="W65" s="24"/>
-      <c r="X65" s="28"/>
-      <c r="Y65" s="21"/>
-      <c r="Z65" s="21"/>
-    </row>
-    <row r="66" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="T66" s="23"/>
-      <c r="U66" s="21"/>
-      <c r="V66" s="21"/>
-      <c r="W66" s="24"/>
-      <c r="X66" s="28"/>
-      <c r="Y66" s="21"/>
-      <c r="Z66" s="21"/>
-    </row>
-    <row r="67" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="T67" s="23"/>
-      <c r="U67" s="21"/>
-      <c r="V67" s="21"/>
-      <c r="W67" s="24"/>
-      <c r="X67" s="28"/>
-      <c r="Y67" s="21"/>
-      <c r="Z67" s="21"/>
-    </row>
-    <row r="68" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="T68" s="23"/>
-      <c r="U68" s="21"/>
-      <c r="V68" s="21"/>
-      <c r="W68" s="24"/>
-      <c r="X68" s="28"/>
-      <c r="Y68" s="21"/>
-      <c r="Z68" s="21"/>
-    </row>
-    <row r="69" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="T69" s="23"/>
-      <c r="U69" s="21"/>
-      <c r="V69" s="21"/>
-      <c r="W69" s="24"/>
-      <c r="X69" s="28"/>
-      <c r="Y69" s="21"/>
-      <c r="Z69" s="21"/>
-    </row>
-    <row r="70" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="T70" s="23"/>
-      <c r="U70" s="21"/>
-      <c r="V70" s="21"/>
-      <c r="W70" s="24"/>
-      <c r="X70" s="28"/>
-      <c r="Y70" s="21"/>
-      <c r="Z70" s="21"/>
-    </row>
-    <row r="71" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="T71" s="23"/>
-      <c r="U71" s="21"/>
-      <c r="V71" s="21"/>
-      <c r="W71" s="24"/>
-      <c r="X71" s="28"/>
-      <c r="Y71" s="21"/>
-      <c r="Z71" s="21"/>
-    </row>
-    <row r="72" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="T72" s="23"/>
-      <c r="U72" s="21"/>
-      <c r="V72" s="21"/>
-      <c r="W72" s="24"/>
-      <c r="X72" s="28"/>
-      <c r="Y72" s="21"/>
-      <c r="Z72" s="21"/>
-    </row>
-    <row r="73" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="T73" s="23"/>
-      <c r="U73" s="21"/>
-      <c r="V73" s="21"/>
-      <c r="W73" s="24"/>
-      <c r="X73" s="28"/>
-      <c r="Y73" s="21"/>
-      <c r="Z73" s="21"/>
-    </row>
-    <row r="74" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="T74" s="23"/>
-      <c r="U74" s="21"/>
-      <c r="V74" s="21"/>
-      <c r="W74" s="24"/>
-      <c r="X74" s="28"/>
-      <c r="Y74" s="21"/>
-      <c r="Z74" s="21"/>
-    </row>
-    <row r="75" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="T75" s="23"/>
-      <c r="U75" s="21"/>
-      <c r="V75" s="21"/>
-      <c r="W75" s="24"/>
-      <c r="X75" s="28"/>
-      <c r="Y75" s="21"/>
-      <c r="Z75" s="21"/>
-    </row>
-    <row r="76" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="T76" s="23"/>
-      <c r="U76" s="21"/>
-      <c r="V76" s="21"/>
-      <c r="W76" s="24"/>
-      <c r="X76" s="28"/>
-      <c r="Y76" s="21"/>
-      <c r="Z76" s="21"/>
-    </row>
-    <row r="77" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="T77" s="23"/>
-      <c r="U77" s="21"/>
-      <c r="V77" s="21"/>
-      <c r="W77" s="24"/>
-      <c r="X77" s="28"/>
-      <c r="Y77" s="21"/>
-      <c r="Z77" s="21"/>
+      <c r="T64" s="2"/>
+    </row>
+    <row r="65" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T65" s="2"/>
+    </row>
+    <row r="66" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T66" s="2"/>
+    </row>
+    <row r="67" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T67" s="2"/>
+    </row>
+    <row r="68" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T68" s="2"/>
+    </row>
+    <row r="69" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T69" s="2"/>
+    </row>
+    <row r="70" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T70" s="2"/>
+    </row>
+    <row r="71" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T71" s="2"/>
+    </row>
+    <row r="72" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T72" s="2"/>
+    </row>
+    <row r="73" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T73" s="2"/>
+    </row>
+    <row r="74" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T74" s="2"/>
+    </row>
+    <row r="75" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T75" s="2"/>
+    </row>
+    <row r="76" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T76" s="2"/>
+    </row>
+    <row r="77" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T77" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/SubRES_TMPL/SubRES_B-NewTechs_COM_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_B-NewTechs_COM_Trans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Gällivare\Gallivare_Model_230318\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Gällivare\Gallivare_Model_230327\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934EEAE9-D9EB-4F3D-A6C7-41AF820AF6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0357069-F7D6-4469-877D-304CC90C596E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26205" yWindow="570" windowWidth="30975" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34575" yWindow="2700" windowWidth="17280" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UPD_AF" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="88">
   <si>
     <t>TimeSlice</t>
   </si>
@@ -267,9 +267,6 @@
     <t>~TFM_UPD</t>
   </si>
   <si>
-    <t>CH*BFW*,CH*BPL*,CH*COA*,CH*GAS*,CH*LPG*,CH*OIL*,CH*WOF*,CH*WOO*</t>
-  </si>
-  <si>
     <t>CK*</t>
   </si>
   <si>
@@ -285,16 +282,22 @@
     <t>CH*AHT*</t>
   </si>
   <si>
-    <t>C*SAV*</t>
-  </si>
-  <si>
     <t>CH*HTH*</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>CH*HP*</t>
+  </si>
+  <si>
+    <t>CH*BFW*,CH*BPL*,CH*WOF*,CH*WOO*</t>
+  </si>
+  <si>
+    <t>CH*COA*,CH*GAS*,CH*LPG*,CH*OIL*</t>
+  </si>
+  <si>
+    <t>*NCAP_AFA</t>
+  </si>
+  <si>
+    <t>CH*SAV*</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -574,6 +577,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -860,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBAAB17-7524-47CE-9CFD-9FFB4BFA441A}">
-  <dimension ref="B2:K12"/>
+  <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -929,11 +939,11 @@
       <c r="E4" s="35"/>
       <c r="F4" s="39">
         <f>IF(OR(FILL_AF!H5="",FILL_AF!H5=0), 0.05,FILL_AF!H5)</f>
-        <v>0.18333333333333299</v>
+        <v>0.2</v>
       </c>
       <c r="G4" s="43" t="str">
         <f>FILL_AF!J5</f>
-        <v>CH*BFW*,CH*BPL*,CH*COA*,CH*GAS*,CH*LPG*,CH*OIL*,CH*WOF*,CH*WOO*</v>
+        <v>CH*BFW*,CH*BPL*,CH*WOF*,CH*WOO*</v>
       </c>
       <c r="H4" s="35"/>
       <c r="I4" s="38"/>
@@ -949,11 +959,11 @@
       <c r="E5" s="35"/>
       <c r="F5" s="39">
         <f>IF(OR(FILL_AF!H6="",FILL_AF!H6=0), 0.05,FILL_AF!H6)</f>
-        <v>4.9999999999999899E-2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="G5" s="43" t="str">
         <f>FILL_AF!J6</f>
-        <v>CK*</v>
+        <v>CH*COA*,CH*GAS*,CH*LPG*,CH*OIL*</v>
       </c>
       <c r="H5" s="35"/>
       <c r="I5" s="38"/>
@@ -969,11 +979,11 @@
       <c r="E6" s="35"/>
       <c r="F6" s="39">
         <f>IF(OR(FILL_AF!H7="",FILL_AF!H7=0), 0.05,FILL_AF!H7)</f>
-        <v>0.60000000000000098</v>
+        <v>4.9999999999999899E-2</v>
       </c>
       <c r="G6" s="43" t="str">
         <f>FILL_AF!J7</f>
-        <v>CL*</v>
+        <v>CK*</v>
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="38"/>
@@ -989,11 +999,11 @@
       <c r="E7" s="35"/>
       <c r="F7" s="39">
         <f>IF(OR(FILL_AF!H8="",FILL_AF!H8=0), 0.05,FILL_AF!H8)</f>
-        <v>1</v>
+        <v>0.60000000000000098</v>
       </c>
       <c r="G7" s="43" t="str">
         <f>FILL_AF!J8</f>
-        <v>CO*</v>
+        <v>CL*</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="38"/>
@@ -1008,12 +1018,12 @@
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="39">
-        <f>IF(OR(FILL_AF!H9="",FILL_AF!H9=0), 0.05,0.55*FILL_AF!H9)</f>
-        <v>8.2500000000000004E-2</v>
+        <f>IF(OR(FILL_AF!H9="",FILL_AF!H9=0), 0.05,FILL_AF!H9)</f>
+        <v>1</v>
       </c>
       <c r="G8" s="43" t="str">
         <f>FILL_AF!J9</f>
-        <v>CH*SOL*</v>
+        <v>CO*</v>
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="38"/>
@@ -1024,16 +1034,16 @@
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
       <c r="D9" s="35" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="39">
-        <f>IF(OR(FILL_AF!H10="",FILL_AF!H10=0), 0.1,FILL_AF!H10)</f>
+        <f>IF(OR(FILL_AF!H10="",FILL_AF!H10=0), 0.05,FILL_AF!H10)</f>
         <v>0.15</v>
       </c>
       <c r="G9" s="43" t="str">
         <f>FILL_AF!J10</f>
-        <v>CH*AHT*</v>
+        <v>CH*SOL*</v>
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="38"/>
@@ -1044,16 +1054,16 @@
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="39">
         <f>IF(OR(FILL_AF!H11="",FILL_AF!H11=0), 0.05,FILL_AF!H11)</f>
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="G10" s="43" t="str">
         <f>FILL_AF!J11</f>
-        <v>C*SAV*</v>
+        <v>CH*AHT*</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="38"/>
@@ -1069,11 +1079,11 @@
       <c r="E11" s="35"/>
       <c r="F11" s="39">
         <f>IF(OR(FILL_AF!H12="",FILL_AF!H12=0), 0.05,FILL_AF!H12)</f>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="G11" s="43" t="str">
         <f>FILL_AF!J12</f>
-        <v>CH*HTH*</v>
+        <v>CH*SAV*</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="38"/>
@@ -1088,16 +1098,32 @@
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="39">
-        <f>F9</f>
+        <f>IF(OR(FILL_AF!H13="",FILL_AF!H13=0), 0.05,FILL_AF!H13)</f>
         <v>0.15</v>
       </c>
-      <c r="G12" s="43" t="s">
-        <v>86</v>
+      <c r="G12" s="43" t="str">
+        <f>FILL_AF!J13</f>
+        <v>CH*HTH*</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="38"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D13" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="6">
+        <f>F10</f>
+        <v>0.15</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G14" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1106,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:AO77"/>
+  <dimension ref="B3:AO78"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1121,7 +1147,7 @@
     <col min="7" max="7" width="6.33203125" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" style="6" customWidth="1"/>
     <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.6640625" customWidth="1"/>
     <col min="21" max="21" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
@@ -1224,11 +1250,11 @@
       </c>
       <c r="G5" s="24"/>
       <c r="H5" s="31">
-        <v>0.18333333333333299</v>
+        <v>0.2</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="24" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
@@ -1313,11 +1339,11 @@
       </c>
       <c r="G6" s="24"/>
       <c r="H6" s="31">
-        <v>4.9999999999999899E-2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="I6" s="32"/>
       <c r="J6" s="24" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
@@ -1328,42 +1354,25 @@
       <c r="Q6" s="25"/>
       <c r="R6" s="25"/>
       <c r="S6" s="25"/>
-      <c r="T6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="W6" s="18">
-        <v>2019</v>
-      </c>
-      <c r="X6" s="22">
-        <f>ROUND($AJ$22*VLOOKUP(LEFT(T6,2),$AL$5:$AN$8,3,FALSE)*VLOOKUP(RIGHT(T6,1),$AL$10:$AM$12,2,FALSE)/8760,4)</f>
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ6" s="3">
-        <v>0.11427</v>
-      </c>
-      <c r="AL6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN6" s="12">
-        <v>77</v>
-      </c>
-      <c r="AO6" s="13">
-        <v>0.21095890410958903</v>
-      </c>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="3"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="13"/>
     </row>
     <row r="7" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
@@ -1381,11 +1390,11 @@
       </c>
       <c r="G7" s="24"/>
       <c r="H7" s="31">
-        <v>0.60000000000000098</v>
+        <v>4.9999999999999899E-2</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
@@ -1397,7 +1406,7 @@
       <c r="R7" s="25"/>
       <c r="S7" s="25"/>
       <c r="T7" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U7" s="17"/>
       <c r="V7" s="17" t="s">
@@ -1407,30 +1416,30 @@
         <v>2019</v>
       </c>
       <c r="X7" s="22">
-        <f t="shared" ref="X7:X17" si="0">ROUND($AJ$22*VLOOKUP(LEFT(T7,2),$AL$5:$AN$8,3,FALSE)*VLOOKUP(RIGHT(T7,1),$AL$10:$AM$12,2,FALSE)/8760,4)</f>
-        <v>1.7100000000000001E-2</v>
+        <f>ROUND($AJ$23*VLOOKUP(LEFT(T7,2),$AL$5:$AN$9,3,FALSE)*VLOOKUP(RIGHT(T7,1),$AL$11:$AM$13,2,FALSE)/8760,4)</f>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="Y7" s="17"/>
       <c r="Z7" s="17" t="s">
         <v>61</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ7" s="3">
-        <v>1.039E-2</v>
+        <v>0.11427</v>
       </c>
       <c r="AL7" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AM7" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AN7" s="12">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AO7" s="13">
-        <v>0.32876712328767121</v>
+        <v>0.21095890410958903</v>
       </c>
     </row>
     <row r="8" spans="2:41" x14ac:dyDescent="0.3">
@@ -1449,11 +1458,11 @@
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="31">
-        <v>1</v>
+        <v>0.60000000000000098</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
@@ -1465,7 +1474,7 @@
       <c r="R8" s="25"/>
       <c r="S8" s="25"/>
       <c r="T8" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U8" s="17"/>
       <c r="V8" s="17" t="s">
@@ -1475,30 +1484,30 @@
         <v>2019</v>
       </c>
       <c r="X8" s="22">
-        <f t="shared" si="0"/>
-        <v>1.6000000000000001E-3</v>
+        <f t="shared" ref="X8:X18" si="0">ROUND($AJ$23*VLOOKUP(LEFT(T8,2),$AL$5:$AN$9,3,FALSE)*VLOOKUP(RIGHT(T8,1),$AL$11:$AM$13,2,FALSE)/8760,4)</f>
+        <v>1.7100000000000001E-2</v>
       </c>
       <c r="Y8" s="17"/>
       <c r="Z8" s="17" t="s">
         <v>61</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ8" s="3">
-        <v>0.10548</v>
+        <v>1.039E-2</v>
       </c>
       <c r="AL8" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AM8" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AN8" s="12">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AO8" s="13">
-        <v>0.21095890410958903</v>
+        <v>0.32876712328767121</v>
       </c>
     </row>
     <row r="9" spans="2:41" x14ac:dyDescent="0.3">
@@ -1517,14 +1526,14 @@
       </c>
       <c r="G9" s="24"/>
       <c r="H9" s="31">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="I9" s="32"/>
       <c r="J9" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K9" s="24"/>
-      <c r="L9" s="29"/>
+      <c r="L9" s="24"/>
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
       <c r="O9" s="25"/>
@@ -1533,7 +1542,7 @@
       <c r="R9" s="25"/>
       <c r="S9" s="25"/>
       <c r="T9" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U9" s="17"/>
       <c r="V9" s="17" t="s">
@@ -1544,25 +1553,29 @@
       </c>
       <c r="X9" s="22">
         <f t="shared" si="0"/>
-        <v>1.5800000000000002E-2</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="Y9" s="17"/>
       <c r="Z9" s="17" t="s">
         <v>61</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ9" s="3">
-        <v>9.6689999999999998E-2</v>
-      </c>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="14"/>
-      <c r="AN9" s="14">
-        <v>365</v>
-      </c>
-      <c r="AO9" s="14">
-        <v>1</v>
+        <v>0.10548</v>
+      </c>
+      <c r="AL9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN9" s="12">
+        <v>77</v>
+      </c>
+      <c r="AO9" s="13">
+        <v>0.21095890410958903</v>
       </c>
     </row>
     <row r="10" spans="2:41" x14ac:dyDescent="0.3">
@@ -1585,7 +1598,7 @@
       </c>
       <c r="I10" s="32"/>
       <c r="J10" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="29"/>
@@ -1597,7 +1610,7 @@
       <c r="R10" s="25"/>
       <c r="S10" s="25"/>
       <c r="T10" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U10" s="17"/>
       <c r="V10" s="17" t="s">
@@ -1608,28 +1621,26 @@
       </c>
       <c r="X10" s="22">
         <f t="shared" si="0"/>
-        <v>1.4500000000000001E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y10" s="17"/>
       <c r="Z10" s="17" t="s">
         <v>61</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ10" s="3">
-        <v>8.7899999999999992E-3</v>
-      </c>
-      <c r="AL10" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM10" s="13">
-        <v>12</v>
-      </c>
-      <c r="AN10" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="AO10" s="2"/>
+        <v>9.6689999999999998E-2</v>
+      </c>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14">
+        <v>365</v>
+      </c>
+      <c r="AO10" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B11" s="24" t="s">
@@ -1646,9 +1657,12 @@
         <v>71</v>
       </c>
       <c r="G11" s="24"/>
-      <c r="H11" s="31"/>
+      <c r="H11" s="31">
+        <v>0.15</v>
+      </c>
+      <c r="I11" s="32"/>
       <c r="J11" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K11" s="24"/>
       <c r="L11" s="29"/>
@@ -1660,7 +1674,7 @@
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
       <c r="T11" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U11" s="17"/>
       <c r="V11" s="17" t="s">
@@ -1671,26 +1685,26 @@
       </c>
       <c r="X11" s="22">
         <f t="shared" si="0"/>
-        <v>1.2999999999999999E-3</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y11" s="17"/>
       <c r="Z11" s="17" t="s">
         <v>61</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ11" s="3">
-        <v>0.16438</v>
+        <v>8.7899999999999992E-3</v>
       </c>
       <c r="AL11" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AM11" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN11" s="13">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="AO11" s="2"/>
     </row>
@@ -1709,12 +1723,11 @@
         <v>71</v>
       </c>
       <c r="G12" s="24"/>
-      <c r="H12" s="31">
-        <v>0.15</v>
-      </c>
+      <c r="H12" s="31"/>
       <c r="J12" s="24" t="s">
-        <v>84</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="K12" s="24"/>
       <c r="L12" s="29"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
@@ -1724,7 +1737,7 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
       <c r="T12" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U12" s="17"/>
       <c r="V12" s="17" t="s">
@@ -1735,30 +1748,51 @@
       </c>
       <c r="X12" s="22">
         <f t="shared" si="0"/>
-        <v>2.47E-2</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="Y12" s="17"/>
       <c r="Z12" s="17" t="s">
         <v>61</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ12" s="3">
-        <v>0.15068000000000001</v>
+        <v>0.16438</v>
       </c>
       <c r="AL12" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AM12" s="13">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AN12" s="13">
-        <v>4.1666666666666664E-2</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="AO12" s="2"/>
     </row>
     <row r="13" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B13" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="31">
+        <v>0.15</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="29"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
       <c r="O13" s="25"/>
@@ -1767,7 +1801,7 @@
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
       <c r="T13" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U13" s="17"/>
       <c r="V13" s="17" t="s">
@@ -1778,24 +1812,26 @@
       </c>
       <c r="X13" s="22">
         <f t="shared" si="0"/>
-        <v>2.2599999999999999E-2</v>
+        <v>2.47E-2</v>
       </c>
       <c r="Y13" s="17"/>
       <c r="Z13" s="17" t="s">
         <v>61</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ13" s="3">
-        <v>1.37E-2</v>
-      </c>
-      <c r="AL13" s="2"/>
-      <c r="AM13" s="15">
-        <v>24</v>
-      </c>
-      <c r="AN13" s="15">
-        <v>0.99999999999999989</v>
+        <v>0.15068000000000001</v>
+      </c>
+      <c r="AL13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM13" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="13">
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AO13" s="2"/>
     </row>
@@ -1808,7 +1844,7 @@
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
       <c r="T14" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U14" s="17"/>
       <c r="V14" s="17" t="s">
@@ -1819,18 +1855,26 @@
       </c>
       <c r="X14" s="22">
         <f t="shared" si="0"/>
-        <v>2.0999999999999999E-3</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="Y14" s="17"/>
       <c r="Z14" s="17" t="s">
         <v>61</v>
       </c>
       <c r="AI14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ14" s="3">
-        <v>0.10548</v>
-      </c>
+        <v>1.37E-2</v>
+      </c>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="15">
+        <v>24</v>
+      </c>
+      <c r="AN14" s="15">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AO14" s="2"/>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.3">
       <c r="M15" s="24"/>
@@ -1841,7 +1885,7 @@
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
       <c r="T15" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U15" s="17"/>
       <c r="V15" s="17" t="s">
@@ -1852,17 +1896,17 @@
       </c>
       <c r="X15" s="22">
         <f t="shared" si="0"/>
-        <v>1.5800000000000002E-2</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="Y15" s="17"/>
       <c r="Z15" s="17" t="s">
         <v>61</v>
       </c>
       <c r="AI15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ15" s="3">
-        <v>9.6689999999999998E-2</v>
+        <v>0.10548</v>
       </c>
     </row>
     <row r="16" spans="2:41" x14ac:dyDescent="0.3">
@@ -1874,7 +1918,7 @@
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
       <c r="T16" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U16" s="17"/>
       <c r="V16" s="17" t="s">
@@ -1885,17 +1929,17 @@
       </c>
       <c r="X16" s="22">
         <f t="shared" si="0"/>
-        <v>1.4500000000000001E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y16" s="17"/>
       <c r="Z16" s="17" t="s">
         <v>61</v>
       </c>
       <c r="AI16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ16" s="3">
-        <v>8.7899999999999992E-3</v>
+        <v>9.6689999999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="13:39" x14ac:dyDescent="0.3">
@@ -1907,7 +1951,7 @@
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
       <c r="T17" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U17" s="17"/>
       <c r="V17" s="17" t="s">
@@ -1918,11 +1962,17 @@
       </c>
       <c r="X17" s="22">
         <f t="shared" si="0"/>
-        <v>1.2999999999999999E-3</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y17" s="17"/>
       <c r="Z17" s="17" t="s">
         <v>61</v>
+      </c>
+      <c r="AI17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>8.7899999999999992E-3</v>
       </c>
     </row>
     <row r="18" spans="13:39" x14ac:dyDescent="0.3">
@@ -1933,23 +1983,23 @@
       <c r="Q18" s="25"/>
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
-      <c r="T18" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="W18" s="8">
-        <v>2019</v>
-      </c>
-      <c r="X18" s="23">
-        <f>ROUND($AJ$28*VLOOKUP(LEFT(T18,2),$AL$5:$AN$8,3,FALSE)*VLOOKUP(RIGHT(T18,1),$AL$10:$AM$12,2,FALSE)/8760,4)</f>
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20" t="s">
-        <v>62</v>
+      <c r="T18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="W18" s="18">
+        <v>2019</v>
+      </c>
+      <c r="X18" s="22">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="13:39" x14ac:dyDescent="0.3">
@@ -1961,7 +2011,7 @@
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
       <c r="T19" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U19" s="20"/>
       <c r="V19" s="20" t="s">
@@ -1971,22 +2021,13 @@
         <v>2019</v>
       </c>
       <c r="X19" s="23">
-        <f t="shared" ref="X19:X29" si="1">ROUND($AJ$28*VLOOKUP(LEFT(T19,2),$AL$5:$AN$8,3,FALSE)*VLOOKUP(RIGHT(T19,1),$AL$10:$AM$12,2,FALSE)/8760,4)</f>
-        <v>1.7100000000000001E-2</v>
+        <f>ROUND($AJ$29*VLOOKUP(LEFT(T19,2),$AL$5:$AN$9,3,FALSE)*VLOOKUP(RIGHT(T19,1),$AL$11:$AM$13,2,FALSE)/8760,4)</f>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK19" s="44"/>
-      <c r="AL19" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM19" s="44"/>
     </row>
     <row r="20" spans="13:39" x14ac:dyDescent="0.3">
       <c r="M20" s="24"/>
@@ -1997,7 +2038,7 @@
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
       <c r="T20" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U20" s="20"/>
       <c r="V20" s="20" t="s">
@@ -2007,26 +2048,22 @@
         <v>2019</v>
       </c>
       <c r="X20" s="23">
-        <f t="shared" si="1"/>
-        <v>1.6000000000000001E-3</v>
+        <f t="shared" ref="X20:X30" si="1">ROUND($AJ$29*VLOOKUP(LEFT(T20,2),$AL$5:$AN$9,3,FALSE)*VLOOKUP(RIGHT(T20,1),$AL$11:$AM$13,2,FALSE)/8760,4)</f>
+        <v>1.7100000000000001E-2</v>
       </c>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20" t="s">
         <v>62</v>
       </c>
       <c r="AI20" s="6"/>
-      <c r="AJ20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>29</v>
-      </c>
+      <c r="AJ20" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK20" s="47"/>
+      <c r="AL20" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM20" s="47"/>
     </row>
     <row r="21" spans="13:39" x14ac:dyDescent="0.3">
       <c r="M21" s="24"/>
@@ -2037,7 +2074,7 @@
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
       <c r="T21" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U21" s="20"/>
       <c r="V21" s="20" t="s">
@@ -2048,26 +2085,24 @@
       </c>
       <c r="X21" s="23">
         <f t="shared" si="1"/>
-        <v>1.5800000000000002E-2</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="Y21" s="20"/>
       <c r="Z21" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="AI21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM21" s="7" t="s">
-        <v>32</v>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="13:39" x14ac:dyDescent="0.3">
@@ -2079,7 +2114,7 @@
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
       <c r="T22" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U22" s="20"/>
       <c r="V22" s="20" t="s">
@@ -2090,29 +2125,26 @@
       </c>
       <c r="X22" s="23">
         <f t="shared" si="1"/>
-        <v>1.4500000000000001E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y22" s="20"/>
       <c r="Z22" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="AH22" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ22" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="AK22" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="AL22" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="AM22" s="9">
-        <v>0.05</v>
+      <c r="AI22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM22" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="13:39" x14ac:dyDescent="0.3">
@@ -2124,7 +2156,7 @@
       <c r="R23" s="25"/>
       <c r="S23" s="25"/>
       <c r="T23" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U23" s="20"/>
       <c r="V23" s="20" t="s">
@@ -2135,17 +2167,17 @@
       </c>
       <c r="X23" s="23">
         <f t="shared" si="1"/>
-        <v>1.2999999999999999E-3</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y23" s="20"/>
       <c r="Z23" s="20" t="s">
         <v>62</v>
       </c>
       <c r="AH23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI23" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AJ23" s="9">
         <v>0.15</v>
@@ -2169,7 +2201,7 @@
       <c r="R24" s="25"/>
       <c r="S24" s="25"/>
       <c r="T24" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U24" s="20"/>
       <c r="V24" s="20" t="s">
@@ -2180,23 +2212,23 @@
       </c>
       <c r="X24" s="23">
         <f t="shared" si="1"/>
-        <v>2.47E-2</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="Y24" s="20"/>
       <c r="Z24" s="20" t="s">
         <v>62</v>
       </c>
       <c r="AH24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI24" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ24" s="9">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK24" s="9">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL24" s="9">
         <v>0.2</v>
@@ -2214,7 +2246,7 @@
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
       <c r="T25" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U25" s="20"/>
       <c r="V25" s="20" t="s">
@@ -2225,20 +2257,20 @@
       </c>
       <c r="X25" s="23">
         <f t="shared" si="1"/>
-        <v>2.2599999999999999E-2</v>
+        <v>2.47E-2</v>
       </c>
       <c r="Y25" s="20"/>
       <c r="Z25" s="20" t="s">
         <v>62</v>
       </c>
       <c r="AH25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI25" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AJ25" s="9">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="AK25" s="9">
         <v>0.25</v>
@@ -2259,7 +2291,7 @@
       <c r="R26" s="25"/>
       <c r="S26" s="25"/>
       <c r="T26" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U26" s="20"/>
       <c r="V26" s="20" t="s">
@@ -2270,20 +2302,20 @@
       </c>
       <c r="X26" s="23">
         <f t="shared" si="1"/>
-        <v>2.0999999999999999E-3</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="Y26" s="20"/>
       <c r="Z26" s="20" t="s">
         <v>62</v>
       </c>
       <c r="AH26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI26" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ26" s="9">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK26" s="9">
         <v>0.25</v>
@@ -2304,7 +2336,7 @@
       <c r="R27" s="25"/>
       <c r="S27" s="25"/>
       <c r="T27" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U27" s="20"/>
       <c r="V27" s="20" t="s">
@@ -2315,23 +2347,23 @@
       </c>
       <c r="X27" s="23">
         <f t="shared" si="1"/>
-        <v>1.5800000000000002E-2</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="Y27" s="20"/>
       <c r="Z27" s="20" t="s">
         <v>62</v>
       </c>
       <c r="AH27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI27" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AJ27" s="9">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="AK27" s="9">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="AL27" s="9">
         <v>0.2</v>
@@ -2349,7 +2381,7 @@
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
       <c r="T28" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U28" s="20"/>
       <c r="V28" s="20" t="s">
@@ -2360,17 +2392,17 @@
       </c>
       <c r="X28" s="23">
         <f t="shared" si="1"/>
-        <v>1.4500000000000001E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y28" s="20"/>
       <c r="Z28" s="20" t="s">
         <v>62</v>
       </c>
       <c r="AH28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AI28" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AJ28" s="9">
         <v>0.15</v>
@@ -2394,7 +2426,7 @@
       <c r="R29" s="25"/>
       <c r="S29" s="25"/>
       <c r="T29" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U29" s="20"/>
       <c r="V29" s="20" t="s">
@@ -2405,20 +2437,20 @@
       </c>
       <c r="X29" s="23">
         <f t="shared" si="1"/>
-        <v>1.2999999999999999E-3</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y29" s="20"/>
       <c r="Z29" s="20" t="s">
         <v>62</v>
       </c>
       <c r="AH29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI29" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ29" s="9">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK29" s="9">
         <v>0.15</v>
@@ -2438,35 +2470,39 @@
       <c r="Q30" s="25"/>
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
-      <c r="T30" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="W30" s="18">
-        <v>2019</v>
-      </c>
-      <c r="X30" s="22">
-        <f>ROUND($AL$22*VLOOKUP(LEFT(T30,2),$AL$5:$AN$8,3,FALSE)*VLOOKUP(RIGHT(T30,1),$AL$10:$AM$12,2,FALSE)/8760,4)</f>
-        <v>2.4899999999999999E-2</v>
-      </c>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17" t="s">
-        <v>63</v>
+      <c r="T30" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="W30" s="8">
+        <v>2019</v>
+      </c>
+      <c r="X30" s="23">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="AH30" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ30" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="AI30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ30" s="9">
+        <v>0.25</v>
+      </c>
       <c r="AK30" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AL30" s="10"/>
+        <v>0.15</v>
+      </c>
+      <c r="AL30" s="9">
+        <v>0.2</v>
+      </c>
       <c r="AM30" s="9">
         <v>0.05</v>
       </c>
@@ -2480,7 +2516,7 @@
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
       <c r="T31" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U31" s="17"/>
       <c r="V31" s="17" t="s">
@@ -2490,12 +2526,26 @@
         <v>2019</v>
       </c>
       <c r="X31" s="22">
-        <f t="shared" ref="X31:X41" si="2">ROUND($AL$22*VLOOKUP(LEFT(T31,2),$AL$5:$AN$8,3,FALSE)*VLOOKUP(RIGHT(T31,1),$AL$10:$AM$12,2,FALSE)/8760,4)</f>
-        <v>2.29E-2</v>
+        <f>ROUND($AL$23*VLOOKUP(LEFT(T31,2),$AL$5:$AN$9,3,FALSE)*VLOOKUP(RIGHT(T31,1),$AL$11:$AM$13,2,FALSE)/8760,4)</f>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="Y31" s="17"/>
       <c r="Z31" s="17" t="s">
         <v>63</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI31" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ31" s="9"/>
+      <c r="AK31" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="9">
+        <v>0.05</v>
       </c>
     </row>
     <row r="32" spans="13:39" x14ac:dyDescent="0.3">
@@ -2507,7 +2557,7 @@
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
       <c r="T32" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U32" s="17"/>
       <c r="V32" s="17" t="s">
@@ -2517,8 +2567,8 @@
         <v>2019</v>
       </c>
       <c r="X32" s="22">
-        <f t="shared" si="2"/>
-        <v>2.0999999999999999E-3</v>
+        <f t="shared" ref="X32:X42" si="2">ROUND($AL$23*VLOOKUP(LEFT(T32,2),$AL$5:$AN$9,3,FALSE)*VLOOKUP(RIGHT(T32,1),$AL$11:$AM$13,2,FALSE)/8760,4)</f>
+        <v>2.29E-2</v>
       </c>
       <c r="Y32" s="17"/>
       <c r="Z32" s="17" t="s">
@@ -2534,7 +2584,7 @@
       <c r="R33" s="25"/>
       <c r="S33" s="25"/>
       <c r="T33" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U33" s="17"/>
       <c r="V33" s="17" t="s">
@@ -2545,7 +2595,7 @@
       </c>
       <c r="X33" s="22">
         <f t="shared" si="2"/>
-        <v>2.1100000000000001E-2</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="Y33" s="17"/>
       <c r="Z33" s="17" t="s">
@@ -2561,7 +2611,7 @@
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
       <c r="T34" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U34" s="17"/>
       <c r="V34" s="17" t="s">
@@ -2572,7 +2622,7 @@
       </c>
       <c r="X34" s="22">
         <f t="shared" si="2"/>
-        <v>1.9300000000000001E-2</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="Y34" s="17"/>
       <c r="Z34" s="17" t="s">
@@ -2588,7 +2638,7 @@
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
       <c r="T35" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U35" s="17"/>
       <c r="V35" s="17" t="s">
@@ -2599,7 +2649,7 @@
       </c>
       <c r="X35" s="22">
         <f t="shared" si="2"/>
-        <v>1.8E-3</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="Y35" s="17"/>
       <c r="Z35" s="17" t="s">
@@ -2615,7 +2665,7 @@
       <c r="R36" s="25"/>
       <c r="S36" s="25"/>
       <c r="T36" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U36" s="17"/>
       <c r="V36" s="17" t="s">
@@ -2626,7 +2676,7 @@
       </c>
       <c r="X36" s="22">
         <f t="shared" si="2"/>
-        <v>3.2899999999999999E-2</v>
+        <v>1.8E-3</v>
       </c>
       <c r="Y36" s="17"/>
       <c r="Z36" s="17" t="s">
@@ -2642,7 +2692,7 @@
       <c r="R37" s="25"/>
       <c r="S37" s="25"/>
       <c r="T37" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U37" s="17"/>
       <c r="V37" s="17" t="s">
@@ -2653,7 +2703,7 @@
       </c>
       <c r="X37" s="22">
         <f t="shared" si="2"/>
-        <v>3.0099999999999998E-2</v>
+        <v>3.2899999999999999E-2</v>
       </c>
       <c r="Y37" s="17"/>
       <c r="Z37" s="17" t="s">
@@ -2669,7 +2719,7 @@
       <c r="R38" s="25"/>
       <c r="S38" s="25"/>
       <c r="T38" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U38" s="17"/>
       <c r="V38" s="17" t="s">
@@ -2680,7 +2730,7 @@
       </c>
       <c r="X38" s="22">
         <f t="shared" si="2"/>
-        <v>2.7000000000000001E-3</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="Y38" s="17"/>
       <c r="Z38" s="17" t="s">
@@ -2696,7 +2746,7 @@
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
       <c r="T39" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U39" s="17"/>
       <c r="V39" s="17" t="s">
@@ -2707,7 +2757,7 @@
       </c>
       <c r="X39" s="22">
         <f t="shared" si="2"/>
-        <v>2.1100000000000001E-2</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="Y39" s="17"/>
       <c r="Z39" s="17" t="s">
@@ -2723,7 +2773,7 @@
       <c r="R40" s="25"/>
       <c r="S40" s="25"/>
       <c r="T40" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U40" s="17"/>
       <c r="V40" s="17" t="s">
@@ -2734,7 +2784,7 @@
       </c>
       <c r="X40" s="22">
         <f t="shared" si="2"/>
-        <v>1.9300000000000001E-2</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="Y40" s="17"/>
       <c r="Z40" s="17" t="s">
@@ -2750,7 +2800,7 @@
       <c r="R41" s="25"/>
       <c r="S41" s="25"/>
       <c r="T41" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U41" s="17"/>
       <c r="V41" s="17" t="s">
@@ -2761,7 +2811,7 @@
       </c>
       <c r="X41" s="22">
         <f t="shared" si="2"/>
-        <v>1.8E-3</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="Y41" s="17"/>
       <c r="Z41" s="17" t="s">
@@ -2776,23 +2826,23 @@
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
-      <c r="T42" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="U42" s="20"/>
-      <c r="V42" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="W42" s="8">
-        <v>2019</v>
-      </c>
-      <c r="X42" s="23">
-        <f>ROUND($AL$28*VLOOKUP(LEFT(T42,2),$AL$5:$AN$8,3,FALSE)*VLOOKUP(RIGHT(T42,1),$AL$10:$AM$12,2,FALSE)/8760,4)</f>
-        <v>2.4899999999999999E-2</v>
-      </c>
-      <c r="Y42" s="20"/>
-      <c r="Z42" s="20" t="s">
-        <v>64</v>
+      <c r="T42" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="W42" s="18">
+        <v>2019</v>
+      </c>
+      <c r="X42" s="22">
+        <f t="shared" si="2"/>
+        <v>1.8E-3</v>
+      </c>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="13:26" x14ac:dyDescent="0.3">
@@ -2804,7 +2854,7 @@
       <c r="R43" s="25"/>
       <c r="S43" s="25"/>
       <c r="T43" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U43" s="20"/>
       <c r="V43" s="20" t="s">
@@ -2814,8 +2864,8 @@
         <v>2019</v>
       </c>
       <c r="X43" s="23">
-        <f t="shared" ref="X43:X53" si="3">ROUND($AL$28*VLOOKUP(LEFT(T43,2),$AL$5:$AN$8,3,FALSE)*VLOOKUP(RIGHT(T43,1),$AL$10:$AM$12,2,FALSE)/8760,4)</f>
-        <v>2.29E-2</v>
+        <f>ROUND($AL$29*VLOOKUP(LEFT(T43,2),$AL$5:$AN$9,3,FALSE)*VLOOKUP(RIGHT(T43,1),$AL$11:$AM$13,2,FALSE)/8760,4)</f>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="Y43" s="20"/>
       <c r="Z43" s="20" t="s">
@@ -2831,7 +2881,7 @@
       <c r="R44" s="25"/>
       <c r="S44" s="25"/>
       <c r="T44" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U44" s="20"/>
       <c r="V44" s="20" t="s">
@@ -2841,8 +2891,8 @@
         <v>2019</v>
       </c>
       <c r="X44" s="23">
-        <f t="shared" si="3"/>
-        <v>2.0999999999999999E-3</v>
+        <f t="shared" ref="X44:X54" si="3">ROUND($AL$29*VLOOKUP(LEFT(T44,2),$AL$5:$AN$9,3,FALSE)*VLOOKUP(RIGHT(T44,1),$AL$11:$AM$13,2,FALSE)/8760,4)</f>
+        <v>2.29E-2</v>
       </c>
       <c r="Y44" s="20"/>
       <c r="Z44" s="20" t="s">
@@ -2850,6 +2900,7 @@
       </c>
     </row>
     <row r="45" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M45" s="24"/>
       <c r="N45" s="24"/>
       <c r="O45" s="25"/>
       <c r="P45" s="25"/>
@@ -2857,7 +2908,7 @@
       <c r="R45" s="25"/>
       <c r="S45" s="25"/>
       <c r="T45" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U45" s="20"/>
       <c r="V45" s="20" t="s">
@@ -2868,7 +2919,7 @@
       </c>
       <c r="X45" s="23">
         <f t="shared" si="3"/>
-        <v>2.1100000000000001E-2</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="Y45" s="20"/>
       <c r="Z45" s="20" t="s">
@@ -2876,8 +2927,14 @@
       </c>
     </row>
     <row r="46" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="N46" s="24"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
       <c r="T46" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U46" s="20"/>
       <c r="V46" s="20" t="s">
@@ -2888,7 +2945,7 @@
       </c>
       <c r="X46" s="23">
         <f t="shared" si="3"/>
-        <v>1.9300000000000001E-2</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="Y46" s="20"/>
       <c r="Z46" s="20" t="s">
@@ -2897,7 +2954,7 @@
     </row>
     <row r="47" spans="13:26" x14ac:dyDescent="0.3">
       <c r="T47" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U47" s="20"/>
       <c r="V47" s="20" t="s">
@@ -2908,7 +2965,7 @@
       </c>
       <c r="X47" s="23">
         <f t="shared" si="3"/>
-        <v>1.8E-3</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="Y47" s="20"/>
       <c r="Z47" s="20" t="s">
@@ -2917,7 +2974,7 @@
     </row>
     <row r="48" spans="13:26" x14ac:dyDescent="0.3">
       <c r="T48" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U48" s="20"/>
       <c r="V48" s="20" t="s">
@@ -2928,7 +2985,7 @@
       </c>
       <c r="X48" s="23">
         <f t="shared" si="3"/>
-        <v>3.2899999999999999E-2</v>
+        <v>1.8E-3</v>
       </c>
       <c r="Y48" s="20"/>
       <c r="Z48" s="20" t="s">
@@ -2937,7 +2994,7 @@
     </row>
     <row r="49" spans="20:26" x14ac:dyDescent="0.3">
       <c r="T49" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U49" s="20"/>
       <c r="V49" s="20" t="s">
@@ -2948,7 +3005,7 @@
       </c>
       <c r="X49" s="23">
         <f t="shared" si="3"/>
-        <v>3.0099999999999998E-2</v>
+        <v>3.2899999999999999E-2</v>
       </c>
       <c r="Y49" s="20"/>
       <c r="Z49" s="20" t="s">
@@ -2957,7 +3014,7 @@
     </row>
     <row r="50" spans="20:26" x14ac:dyDescent="0.3">
       <c r="T50" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U50" s="20"/>
       <c r="V50" s="20" t="s">
@@ -2968,7 +3025,7 @@
       </c>
       <c r="X50" s="23">
         <f t="shared" si="3"/>
-        <v>2.7000000000000001E-3</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="Y50" s="20"/>
       <c r="Z50" s="20" t="s">
@@ -2977,7 +3034,7 @@
     </row>
     <row r="51" spans="20:26" x14ac:dyDescent="0.3">
       <c r="T51" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U51" s="20"/>
       <c r="V51" s="20" t="s">
@@ -2988,7 +3045,7 @@
       </c>
       <c r="X51" s="23">
         <f t="shared" si="3"/>
-        <v>2.1100000000000001E-2</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="Y51" s="20"/>
       <c r="Z51" s="20" t="s">
@@ -2997,7 +3054,7 @@
     </row>
     <row r="52" spans="20:26" x14ac:dyDescent="0.3">
       <c r="T52" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U52" s="20"/>
       <c r="V52" s="20" t="s">
@@ -3008,7 +3065,7 @@
       </c>
       <c r="X52" s="23">
         <f t="shared" si="3"/>
-        <v>1.9300000000000001E-2</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="Y52" s="20"/>
       <c r="Z52" s="20" t="s">
@@ -3017,7 +3074,7 @@
     </row>
     <row r="53" spans="20:26" x14ac:dyDescent="0.3">
       <c r="T53" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U53" s="20"/>
       <c r="V53" s="20" t="s">
@@ -3028,7 +3085,7 @@
       </c>
       <c r="X53" s="23">
         <f t="shared" si="3"/>
-        <v>1.8E-3</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="Y53" s="20"/>
       <c r="Z53" s="20" t="s">
@@ -3036,7 +3093,24 @@
       </c>
     </row>
     <row r="54" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="T54" s="2"/>
+      <c r="T54" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="U54" s="20"/>
+      <c r="V54" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="W54" s="8">
+        <v>2019</v>
+      </c>
+      <c r="X54" s="23">
+        <f t="shared" si="3"/>
+        <v>1.8E-3</v>
+      </c>
+      <c r="Y54" s="20"/>
+      <c r="Z54" s="20" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="55" spans="20:26" x14ac:dyDescent="0.3">
       <c r="T55" s="2"/>
@@ -3107,10 +3181,13 @@
     <row r="77" spans="20:20" x14ac:dyDescent="0.3">
       <c r="T77" s="2"/>
     </row>
+    <row r="78" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T78" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="AJ19:AK19"/>
-    <mergeCell ref="AL19:AM19"/>
+    <mergeCell ref="AJ20:AK20"/>
+    <mergeCell ref="AL20:AM20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
